--- a/paper/previous_studies.xlsx
+++ b/paper/previous_studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomwagg/Documents/detecting-DCOs-in-LISA/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E3043-84C1-4D40-9D14-885A6818EF5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB92E8A-1F7B-5F4B-90A7-0E2B87D27EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{932AC085-5DF1-7346-88C0-42B7380C67FF}"/>
   </bookViews>
@@ -677,91 +677,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -778,6 +754,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color theme="0"/>
@@ -788,6 +770,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thick">
@@ -801,6 +786,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color theme="0"/>
@@ -811,6 +802,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thick">
@@ -827,6 +821,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color theme="0"/>
@@ -863,6 +866,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thick">
@@ -881,117 +887,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1019,6 +919,26 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,7 +961,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1C5A5B4-5491-F84E-B0A3-0F84177ABE79}" name="Table4" displayName="Table4" ref="A2:P14" headerRowDxfId="40" dataDxfId="39" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1C5A5B4-5491-F84E-B0A3-0F84177ABE79}" name="Table4" displayName="Table4" ref="A2:P14" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
   <autoFilter ref="A2:P14" xr:uid="{D1F23B23-2B7B-B14A-B22D-BE517C88CFE3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1061,24 +981,24 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D5BF35A2-FB1D-6A49-9F0A-76B8FA65EB81}" name="Author" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E98E891B-5677-E14F-B7FD-6BEBF3F21A9A}" name="Year" dataDxfId="17" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5CEC3373-4194-3A4E-B9DA-BA7BE2E2689D}" name="WDWD" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{D5BF35A2-FB1D-6A49-9F0A-76B8FA65EB81}" name="Author" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E98E891B-5677-E14F-B7FD-6BEBF3F21A9A}" name="Year" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5CEC3373-4194-3A4E-B9DA-BA7BE2E2689D}" name="WDWD" dataDxfId="23">
       <calculatedColumnFormula>12124+5943</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A240A617-F19A-B942-B652-48F4979F2291}" name="NSNS" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{DFC45EC4-2F0C-814E-8982-051696B2F68B}" name="BHNS" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{06DDA78C-9D73-FF41-B9DB-B2F336F906AA}" name="BHBH" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A3381924-6772-7342-A5C9-D114C1823241}" name="Star formation history" dataDxfId="12" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{C371F868-4A48-5840-B808-68E0684BE195}" name="Spatial distribution" dataDxfId="11" totalsRowDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{DAEE09C4-384B-3E4D-9A96-E2000A449252}" name="Galactic Components" dataDxfId="10" totalsRowDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{B6889DA3-EC68-6D4C-A262-97DE6D094611}" name="Metallicity Dependent Distributions" dataDxfId="9" totalsRowDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{BB993792-72A2-1041-90ED-AE9230A7B456}" name="Code" dataDxfId="8" totalsRowDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{9FB7A67B-118D-C348-BD48-F8CFDC9CA6F9}" name="Metallicity" dataDxfId="7" totalsRowDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{266FE277-4F6F-9D44-9DDE-8ADC17509FF7}" name="Binary Physics Variations" dataDxfId="6" totalsRowDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{0FE92553-561E-F149-9869-34BFC04DA351}" name="SNR Limit" dataDxfId="5" totalsRowDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{D44A37E3-F2B2-5A44-8211-F5DA7CEA4BAD}" name="LISA Mission Time (yr)" dataDxfId="4" totalsRowDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{8C0480D7-1E75-A44F-B432-A0DF655A21AE}" name="Eccentricity Treatment" dataDxfId="3" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{A240A617-F19A-B942-B652-48F4979F2291}" name="NSNS" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{DFC45EC4-2F0C-814E-8982-051696B2F68B}" name="BHNS" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{06DDA78C-9D73-FF41-B9DB-B2F336F906AA}" name="BHBH" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{A3381924-6772-7342-A5C9-D114C1823241}" name="Star formation history" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C371F868-4A48-5840-B808-68E0684BE195}" name="Spatial distribution" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{DAEE09C4-384B-3E4D-9A96-E2000A449252}" name="Galactic Components" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{B6889DA3-EC68-6D4C-A262-97DE6D094611}" name="Metallicity Dependent Distributions" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{BB993792-72A2-1041-90ED-AE9230A7B456}" name="Code" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{9FB7A67B-118D-C348-BD48-F8CFDC9CA6F9}" name="Metallicity" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{266FE277-4F6F-9D44-9DDE-8ADC17509FF7}" name="Binary Physics Variations" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{0FE92553-561E-F149-9869-34BFC04DA351}" name="SNR Limit" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{D44A37E3-F2B2-5A44-8211-F5DA7CEA4BAD}" name="LISA Mission Time (yr)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{8C0480D7-1E75-A44F-B432-A0DF655A21AE}" name="Eccentricity Treatment" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1384,7 +1304,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,28 +1330,28 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="30"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1511,19 +1431,19 @@
       <c r="H3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -1532,7 +1452,7 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1561,19 +1481,19 @@
       <c r="H4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="37" t="s">
         <v>88</v>
       </c>
       <c r="N4" s="11">
@@ -1582,7 +1502,7 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="32" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1611,19 +1531,19 @@
       <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="33">
         <v>0.02</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -1632,11 +1552,11 @@
       <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1661,19 +1581,19 @@
       <c r="H6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="11" t="s">
@@ -1682,7 +1602,7 @@
       <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1711,19 +1631,19 @@
       <c r="H7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="11">
@@ -1732,7 +1652,7 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="32" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1761,19 +1681,19 @@
       <c r="H8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="33">
         <v>0.02</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="11">
@@ -1782,7 +1702,7 @@
       <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="32" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1811,19 +1731,19 @@
       <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N9" s="11">
@@ -1832,7 +1752,7 @@
       <c r="O9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="32" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1861,19 +1781,19 @@
       <c r="H10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="27" t="s">
         <v>49</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="12">
@@ -1882,7 +1802,7 @@
       <c r="O10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="42" t="s">
+      <c r="P10" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1911,19 +1831,19 @@
       <c r="H11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="33">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="N11" s="11">
@@ -1932,7 +1852,7 @@
       <c r="O11" s="3">
         <v>4</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1961,19 +1881,19 @@
       <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="32" t="s">
         <v>32</v>
       </c>
       <c r="N12" s="11">
@@ -1982,7 +1902,7 @@
       <c r="O12" s="3">
         <v>4</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2011,19 +1931,19 @@
       <c r="H13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="29" t="s">
         <v>49</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="35" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="25">
@@ -2032,7 +1952,7 @@
       <c r="O13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2061,19 +1981,19 @@
       <c r="H14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="30" t="s">
         <v>49</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="30">
         <v>15</v>
       </c>
       <c r="N14" s="13">
@@ -2082,7 +2002,7 @@
       <c r="O14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2112,10 +2032,10 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="D17 F10 F13 C2:F2 D14:F14 C12:F12 C3:E14 G2:G14 K2:K14 N2:N14">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
